--- a/Part03/Ch02 - 네이버 금융 크롤링/naver_finance/prices.xlsx
+++ b/Part03/Ch02 - 네이버 금융 크롤링/naver_finance/prices.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>58,000</t>
+          <t>57,900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>831,606</t>
+          <t>962,237</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>73,000</t>
+          <t>73,100</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11,312,337</t>
+          <t>15,051,656</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>500,000</t>
+          <t>481,000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>285,635</t>
+          <t>447,097</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>149,000</t>
+          <t>156,500</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4,235,085</t>
+          <t>5,848,421</t>
         </is>
       </c>
     </row>
